--- a/Electricity_Source.xlsx
+++ b/Electricity_Source.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackkellett/Documents/SecondYearUni/VIP/Design/Social Impact Excel Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70735d52a2925493/Documents/malawi-microgrids-VIP4SD-main/malawi-microgrids-VIP4SD-main/Social/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E0568B-B143-EC42-BB98-7F3374677068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{31E0568B-B143-EC42-BB98-7F3374677068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04FC1DB6-CBF2-41CD-A2DC-3A4A4A55F01D}"/>
   <bookViews>
-    <workbookView xWindow="6800" yWindow="6540" windowWidth="27240" windowHeight="15460" xr2:uid="{694137DE-D752-0A4E-B3EB-A9DAFAE53A7F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{694137DE-D752-0A4E-B3EB-A9DAFAE53A7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -139,10 +141,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -180,7 +186,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -286,7 +292,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -428,7 +434,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -438,17 +444,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB305EE-F521-464F-A920-D0DD715E91AB}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -459,7 +465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -470,7 +476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -481,7 +487,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -492,7 +498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -503,7 +509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -514,7 +520,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -525,7 +531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -536,7 +542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -547,7 +553,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -558,7 +564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -569,7 +575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -580,7 +586,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -591,7 +597,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -602,7 +608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -613,7 +619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -624,7 +630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -635,7 +641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -646,7 +652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -657,55 +663,73 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -713,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -721,7 +745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -729,7 +753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -737,7 +761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -745,7 +769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -753,7 +777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -761,7 +785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -769,7 +793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -777,7 +801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -785,7 +809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -793,7 +817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>10</v>
       </c>
